--- a/exports/sol-usd_forecast_next7.xlsx
+++ b/exports/sol-usd_forecast_next7.xlsx
@@ -448,71 +448,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.15</v>
+        <v>137.73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-16</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153.22</v>
+        <v>137.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-11-15</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.24</v>
+        <v>136.98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-11-16</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>151.83</v>
+        <v>136.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152.1</v>
+        <v>136.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.52</v>
+        <v>136.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>150.68</v>
+        <v>135.47</v>
       </c>
     </row>
   </sheetData>
